--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -231,7 +231,7 @@
     <t>Rue de Sébeillon 12, 1004 Lausanne</t>
   </si>
   <si>
-    <t>menu avec choix avec des ARROW KEYS</t>
+    <t>menu avec choix avec des ARROW KEYS,  suppresion de password</t>
   </si>
 </sst>
 </file>
@@ -915,11 +915,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1404,8 +1404,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1525,8 +1525,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>Semaine</t>
   </si>
@@ -233,12 +233,21 @@
   <si>
     <t>menu avec choix avec des ARROW KEYS,  suppresion de password</t>
   </si>
+  <si>
+    <t>ajoute des boutons w ,s (up , down); menu text, center menu(méthode plus intelligent ,pas juste \t.</t>
+  </si>
+  <si>
+    <t>0.1H</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +323,12 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -770,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -898,28 +913,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,7 +1253,7 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,8 +1274,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1277,11 +1293,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="59"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
@@ -1296,11 +1312,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="59"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="58"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
@@ -1393,8 +1409,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1404,8 +1420,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1503,8 +1519,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1514,8 +1530,8 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="29"/>
       <c r="D17" s="45"/>
       <c r="E17" s="3"/>
@@ -1525,8 +1541,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1536,8 +1552,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="20"/>
       <c r="D19" s="45"/>
       <c r="E19" s="3"/>
@@ -1554,13 +1570,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -1694,9 +1710,15 @@
         <v>3</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -1878,8 +1900,8 @@
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1900,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="48">
-        <v>45602</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,7 +1930,7 @@
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="59"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="57" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1952,7 @@
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="59"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="58"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
@@ -1944,9 +1966,15 @@
       <c r="C43" s="51"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,9 +1983,15 @@
       <c r="C44" s="51"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>62</v>
+      </c>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1994,8 +2028,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="51"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2004,8 +2038,8 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="51"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2015,8 +2049,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="51"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2026,8 +2060,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="51"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2037,8 +2071,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2048,8 +2082,8 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2059,8 +2093,8 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2070,8 +2104,8 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2081,8 +2115,8 @@
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2112,8 +2146,8 @@
       <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -2130,11 +2164,11 @@
         <v>1</v>
       </c>
       <c r="I60" s="48">
-        <v>45602</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="59"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="57" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2183,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="59"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="58"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
@@ -2275,8 +2309,8 @@
       <c r="I78" s="33"/>
     </row>
     <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -2293,11 +2327,11 @@
         <v>1</v>
       </c>
       <c r="I80" s="48">
-        <v>45602</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" s="59"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="57" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2346,7 @@
       </c>
     </row>
     <row r="82" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="59"/>
+      <c r="E82" s="63"/>
       <c r="F82" s="58"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
@@ -2438,8 +2472,8 @@
       <c r="I98" s="33"/>
     </row>
     <row r="99" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
@@ -2456,11 +2490,11 @@
         <v>1</v>
       </c>
       <c r="I100" s="48">
-        <v>45602</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="59"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="57" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2509,7 @@
       </c>
     </row>
     <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="59"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="58"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
@@ -2601,8 +2635,8 @@
       <c r="I118" s="33"/>
     </row>
     <row r="119" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="60"/>
-      <c r="F119" s="60"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -2619,11 +2653,11 @@
         <v>1</v>
       </c>
       <c r="I120" s="48">
-        <v>45602</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" s="59"/>
+      <c r="E121" s="63"/>
       <c r="F121" s="57" t="s">
         <v>2</v>
       </c>
@@ -2638,7 +2672,7 @@
       </c>
     </row>
     <row r="122" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="59"/>
+      <c r="E122" s="63"/>
       <c r="F122" s="58"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
@@ -2764,8 +2798,8 @@
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="60"/>
-      <c r="F139" s="60"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -2782,11 +2816,11 @@
         <v>1</v>
       </c>
       <c r="I140" s="48">
-        <v>45602</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="59"/>
+      <c r="E141" s="63"/>
       <c r="F141" s="57" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2835,7 @@
       </c>
     </row>
     <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="59"/>
+      <c r="E142" s="63"/>
       <c r="F142" s="58"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
@@ -2927,57 +2961,14 @@
       <c r="I158" s="33"/>
     </row>
     <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="F22:F23"/>
@@ -2994,6 +2985,49 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Semaine</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>rapport</t>
+  </si>
+  <si>
+    <t>choix de method de l'encodage, listes de services +(url, Login, Mot de passe)</t>
+  </si>
+  <si>
+    <t>3.5H</t>
   </si>
 </sst>
 </file>
@@ -911,31 +917,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,8 +1280,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1293,36 +1299,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1409,8 +1415,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1420,8 +1426,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1519,8 +1525,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1530,8 +1536,8 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="29"/>
       <c r="D17" s="45"/>
       <c r="E17" s="3"/>
@@ -1541,8 +1547,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1552,8 +1558,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="20"/>
       <c r="D19" s="45"/>
       <c r="E19" s="3"/>
@@ -1575,8 +1581,8 @@
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -1620,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1645,12 +1651,12 @@
         <v>3</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="58"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
@@ -1900,8 +1906,8 @@
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1930,17 +1936,17 @@
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="57" t="s">
+      <c r="E41" s="60"/>
+      <c r="F41" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1952,13 +1958,13 @@
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="58"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
@@ -1989,7 +1995,7 @@
       <c r="G44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="77" t="s">
+      <c r="H44" s="57" t="s">
         <v>62</v>
       </c>
       <c r="I44" s="17"/>
@@ -2028,8 +2034,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="51"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2038,8 +2044,8 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="51"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2049,8 +2055,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="51"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2060,8 +2066,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="51"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2071,8 +2077,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2082,8 +2088,8 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2093,8 +2099,8 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2104,8 +2110,8 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2115,8 +2121,8 @@
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="76"/>
-      <c r="B56" s="73"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2146,8 +2152,8 @@
       <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -2168,28 +2174,28 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="63"/>
-      <c r="F61" s="57" t="s">
+      <c r="E61" s="60"/>
+      <c r="F61" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="57" t="s">
+      <c r="I61" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="63"/>
-      <c r="F62" s="58"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
@@ -2309,8 +2315,8 @@
       <c r="I78" s="33"/>
     </row>
     <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -2331,41 +2337,53 @@
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" s="63"/>
-      <c r="F81" s="57" t="s">
+      <c r="E81" s="60"/>
+      <c r="F81" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H81" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="57" t="s">
+      <c r="I81" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="63"/>
-      <c r="F82" s="58"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="59"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="F83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="I83" s="37"/>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="F84" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
@@ -2472,8 +2490,8 @@
       <c r="I98" s="33"/>
     </row>
     <row r="99" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
@@ -2494,28 +2512,28 @@
       </c>
     </row>
     <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="63"/>
-      <c r="F101" s="57" t="s">
+      <c r="E101" s="60"/>
+      <c r="F101" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="57" t="s">
+      <c r="H101" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="57" t="s">
+      <c r="I101" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="63"/>
-      <c r="F102" s="58"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="59"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
     </row>
     <row r="103" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E103" s="3"/>
@@ -2635,8 +2653,8 @@
       <c r="I118" s="33"/>
     </row>
     <row r="119" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -2657,28 +2675,28 @@
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" s="63"/>
-      <c r="F121" s="57" t="s">
+      <c r="E121" s="60"/>
+      <c r="F121" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="57" t="s">
+      <c r="H121" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I121" s="57" t="s">
+      <c r="I121" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="63"/>
-      <c r="F122" s="58"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="59"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="58"/>
-      <c r="I122" s="58"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
@@ -2798,8 +2816,8 @@
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -2820,28 +2838,28 @@
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="63"/>
-      <c r="F141" s="57" t="s">
+      <c r="E141" s="60"/>
+      <c r="F141" s="58" t="s">
         <v>2</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H141" s="57" t="s">
+      <c r="H141" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I141" s="57" t="s">
+      <c r="I141" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="63"/>
-      <c r="F142" s="58"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="59"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="58"/>
-      <c r="I142" s="58"/>
+      <c r="H142" s="59"/>
+      <c r="I142" s="59"/>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E143" s="41"/>
@@ -2961,14 +2979,57 @@
       <c r="I158" s="33"/>
     </row>
     <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E159" s="68"/>
-      <c r="F159" s="68"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="61"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="F22:F23"/>
@@ -2985,49 +3046,6 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>Semaine</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>3.5H</t>
+  </si>
+  <si>
+    <t>ameliorer le journal de travail (ajouter le contenu logique)</t>
+  </si>
+  <si>
+    <t>absc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choix de method de l'encodage( ajouter le boutton back to menu)(ameliorer les methodes de l'encodage; amelioration d'emplacemen du text ; loading methode ; comments </t>
   </si>
 </sst>
 </file>
@@ -920,28 +929,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="J79" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,15 +1282,16 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="57.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="58.140625" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1299,11 +1309,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="58" t="s">
         <v>2</v>
       </c>
@@ -1318,11 +1328,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="60"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="59"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
@@ -1415,8 +1425,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1426,8 +1436,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1525,8 +1535,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1536,8 +1546,8 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="29"/>
       <c r="D17" s="45"/>
       <c r="E17" s="3"/>
@@ -1547,8 +1557,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1558,8 +1568,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="20"/>
       <c r="D19" s="45"/>
       <c r="E19" s="3"/>
@@ -1576,13 +1586,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -1677,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I24" s="17"/>
     </row>
@@ -1906,8 +1916,8 @@
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1936,7 +1946,7 @@
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="60"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="58" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1968,7 @@
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="60"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="59"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
@@ -1979,7 +1989,7 @@
         <v>63</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I43" s="37"/>
     </row>
@@ -2034,8 +2044,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="51"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2044,8 +2054,8 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="51"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2055,8 +2065,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="51"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2066,8 +2076,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="51"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2077,8 +2087,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2088,8 +2098,8 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2099,8 +2109,8 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2110,8 +2120,8 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2121,8 +2131,8 @@
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2152,8 +2162,8 @@
       <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -2174,7 +2184,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="60"/>
+      <c r="E61" s="64"/>
       <c r="F61" s="58" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2199,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="60"/>
+      <c r="E62" s="64"/>
       <c r="F62" s="59"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
@@ -2199,9 +2209,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="I63" s="37"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2315,8 +2329,8 @@
       <c r="I78" s="33"/>
     </row>
     <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -2336,8 +2350,8 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" s="60"/>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="64"/>
       <c r="F81" s="58" t="s">
         <v>2</v>
       </c>
@@ -2351,8 +2365,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="60"/>
+    <row r="82" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="64"/>
       <c r="F82" s="59"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
@@ -2360,7 +2374,7 @@
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
       <c r="F83" s="17" t="s">
         <v>13</v>
@@ -2369,11 +2383,11 @@
         <v>63</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
       <c r="F84" s="17" t="s">
         <v>36</v>
@@ -2386,83 +2400,137 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="3"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
+        <v>5</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M87" s="48">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="I88" s="17"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L88" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="3"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="59"/>
+      <c r="K89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+    </row>
+    <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="37"/>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E91" s="3"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E92" s="3"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E93" s="3"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E94" s="3"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E95" s="3"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E96" s="3"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
@@ -2490,8 +2558,8 @@
       <c r="I98" s="33"/>
     </row>
     <row r="99" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="61"/>
-      <c r="F99" s="61"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
@@ -2512,7 +2580,7 @@
       </c>
     </row>
     <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="60"/>
+      <c r="E101" s="64"/>
       <c r="F101" s="58" t="s">
         <v>2</v>
       </c>
@@ -2527,7 +2595,7 @@
       </c>
     </row>
     <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="60"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="59"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
@@ -2653,8 +2721,8 @@
       <c r="I118" s="33"/>
     </row>
     <row r="119" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -2675,7 +2743,7 @@
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" s="60"/>
+      <c r="E121" s="64"/>
       <c r="F121" s="58" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2758,7 @@
       </c>
     </row>
     <row r="122" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="60"/>
+      <c r="E122" s="64"/>
       <c r="F122" s="59"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
@@ -2816,8 +2884,8 @@
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="61"/>
-      <c r="F139" s="61"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="69"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -2838,7 +2906,7 @@
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="60"/>
+      <c r="E141" s="64"/>
       <c r="F141" s="58" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +2921,7 @@
       </c>
     </row>
     <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="60"/>
+      <c r="E142" s="64"/>
       <c r="F142" s="59"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
@@ -2979,57 +3047,17 @@
       <c r="I158" s="33"/>
     </row>
     <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E159" s="61"/>
-      <c r="F159" s="61"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
+  <mergeCells count="62">
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="F22:F23"/>
@@ -3046,6 +3074,49 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosnademo\Documents\GitHub\password-manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca75c2ab181ca0c/Документи/GitHub/password-manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_50A185C16F79C8150FE3D324A1460863E4469A48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{091C3C59-FAAB-4E7A-AF5D-D6B367CFA178}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>Semaine</t>
   </si>
@@ -257,11 +258,14 @@
   <si>
     <t xml:space="preserve">choix de method de l'encodage( ajouter le boutton back to menu)(ameliorer les methodes de l'encodage; amelioration d'emplacemen du text ; loading methode ; comments </t>
   </si>
+  <si>
+    <t xml:space="preserve">function of deciding YesNo; showing of users info form file </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -896,7 +900,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,8 +918,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -924,33 +925,32 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,34 +1264,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J79" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="3" max="3" width="121.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="121.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="58.140625" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="58.109375" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1304,43 +1304,43 @@
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="47">
         <v>45602</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="68"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="59"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
@@ -1382,7 +1382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="15" t="s">
         <v>12</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="149.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
@@ -1424,9 +1424,9 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1435,9 +1435,9 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+    <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1446,7 +1446,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1461,7 +1461,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="23" t="s">
         <v>16</v>
@@ -1476,7 +1476,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
@@ -1491,7 +1491,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
         <v>18</v>
@@ -1506,7 +1506,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
         <v>19</v>
@@ -1521,7 +1521,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
@@ -1534,9 +1534,9 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="68"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1545,20 +1545,20 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="3"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1567,11 +1567,11 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="3"/>
       <c r="F19" s="31" t="s">
         <v>21</v>
@@ -1586,26 +1586,26 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1620,36 +1620,36 @@
       <c r="H21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="47">
         <v>45609</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="51">
         <v>2</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="58" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="36" t="s">
         <v>42</v>
@@ -1657,18 +1657,18 @@
       <c r="C23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="43">
         <v>3</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="59"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="38" t="s">
         <v>44</v>
@@ -1676,7 +1676,7 @@
       <c r="C24" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="51">
         <v>4</v>
       </c>
       <c r="E24" s="3"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="36" t="s">
         <v>46</v>
@@ -1699,7 +1699,7 @@
       <c r="C25" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <v>4</v>
       </c>
       <c r="E25" s="3"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="36" t="s">
         <v>48</v>
@@ -1722,7 +1722,7 @@
       <c r="C26" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="51">
         <v>3</v>
       </c>
       <c r="E26" s="3"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="38" t="s">
         <v>50</v>
@@ -1745,7 +1745,7 @@
       <c r="C27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="43">
         <v>3</v>
       </c>
       <c r="E27" s="3"/>
@@ -1754,7 +1754,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="36" t="s">
         <v>52</v>
@@ -1762,7 +1762,7 @@
       <c r="C28" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="51">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
@@ -1770,7 +1770,7 @@
       <c r="G28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="36" t="s">
         <v>54</v>
@@ -1778,7 +1778,7 @@
       <c r="C29" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="43">
         <v>3</v>
       </c>
       <c r="E29" s="3"/>
@@ -1787,7 +1787,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="38" t="s">
         <v>56</v>
@@ -1795,7 +1795,7 @@
       <c r="C30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="51">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
@@ -1804,7 +1804,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="36" t="s">
         <v>38</v>
@@ -1812,7 +1812,7 @@
       <c r="C31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="51">
         <v>4</v>
       </c>
       <c r="E31" s="3"/>
@@ -1821,7 +1821,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="36" t="s">
         <v>58</v>
@@ -1829,39 +1829,39 @@
       <c r="C32" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="3"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="3"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34"/>
       <c r="B34" s="36"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="3"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="28"/>
@@ -1869,11 +1869,11 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="49">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="48">
         <f>SUM(D10:D35)</f>
         <v>30</v>
       </c>
@@ -1883,10 +1883,10 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="30"/>
@@ -1894,10 +1894,10 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="31" t="s">
@@ -1911,21 +1911,21 @@
       </c>
       <c r="I38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
@@ -1937,49 +1937,49 @@
       <c r="H40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="47">
         <v>45616</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="58" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="49">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="48">
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="17" t="s">
@@ -1993,10 +1993,10 @@
       </c>
       <c r="I43" s="37"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="17" t="s">
@@ -2005,15 +2005,15 @@
       <c r="G44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="57" t="s">
+      <c r="H44" s="53" t="s">
         <v>62</v>
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="17"/>
@@ -2021,10 +2021,10 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="17"/>
@@ -2032,10 +2032,10 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="17"/>
@@ -2043,20 +2043,20 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="51"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="51"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="17"/>
@@ -2064,10 +2064,10 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="51"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="17"/>
@@ -2075,10 +2075,10 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="51"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="17"/>
@@ -2086,9 +2086,9 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="66"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2097,9 +2097,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="66"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2108,9 +2108,9 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="66"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2119,9 +2119,9 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="66"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2130,9 +2130,9 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="77"/>
-      <c r="B56" s="74"/>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2141,14 +2141,14 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="3"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="3"/>
       <c r="F58" s="31" t="s">
         <v>21</v>
@@ -2161,14 +2161,14 @@
       </c>
       <c r="I58" s="33"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
     </row>
-    <row r="60" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
         <v>0</v>
@@ -2179,35 +2179,35 @@
       <c r="H60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I60" s="48">
+      <c r="I60" s="47">
         <v>45623</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="64"/>
-      <c r="F61" s="58" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E61" s="56"/>
+      <c r="F61" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="58" t="s">
+      <c r="H61" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="64"/>
-      <c r="F62" s="59"/>
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="56"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E63" s="3"/>
       <c r="F63" s="17" t="s">
         <v>68</v>
@@ -2218,104 +2218,104 @@
       </c>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E64" s="3"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E65" s="3"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E66" s="3"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E67" s="3"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E68" s="3"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E69" s="3"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E70" s="3"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E72" s="3"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E73" s="3"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E74" s="3"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E75" s="3"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E76" s="3"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E77" s="3"/>
       <c r="F77" s="30"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E78" s="3"/>
       <c r="F78" s="31" t="s">
         <v>21</v>
@@ -2328,14 +2328,14 @@
       </c>
       <c r="I78" s="33"/>
     </row>
-    <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
+    <row r="79" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
     </row>
-    <row r="80" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
         <v>0</v>
@@ -2346,35 +2346,35 @@
       <c r="H80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I80" s="48">
+      <c r="I80" s="47">
         <v>45630</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="64"/>
-      <c r="F81" s="58" t="s">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E81" s="56"/>
+      <c r="F81" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="58" t="s">
+      <c r="H81" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="58" t="s">
+      <c r="I81" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="64"/>
-      <c r="F82" s="59"/>
+    <row r="82" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="56"/>
+      <c r="F82" s="55"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E83" s="3"/>
       <c r="F83" s="17" t="s">
         <v>13</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E84" s="3"/>
       <c r="F84" s="17" t="s">
         <v>36</v>
@@ -2395,26 +2395,26 @@
       <c r="G84" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H84" s="57" t="s">
+      <c r="H84" s="53" t="s">
         <v>65</v>
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E85" s="3"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E86" s="3"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E87" s="3"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -2429,42 +2429,42 @@
       <c r="L87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M87" s="48">
+      <c r="M87" s="47">
         <v>45630</v>
       </c>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E88" s="3"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="58" t="s">
+      <c r="J88" s="54" t="s">
         <v>2</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L88" s="58" t="s">
+      <c r="L88" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="58" t="s">
+      <c r="M88" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E89" s="3"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="59"/>
+      <c r="J89" s="55"/>
       <c r="K89" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-    </row>
-    <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+    </row>
+    <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E90" s="3"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E91" s="3"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -2493,12 +2493,12 @@
       <c r="K91" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L91" s="57" t="s">
+      <c r="L91" s="53" t="s">
         <v>69</v>
       </c>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E92" s="3"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -2509,42 +2509,42 @@
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E93" s="3"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E94" s="3"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E95" s="3"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E96" s="3"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="3"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E98" s="3"/>
       <c r="F98" s="31" t="s">
         <v>21</v>
@@ -2557,14 +2557,14 @@
       </c>
       <c r="I98" s="33"/>
     </row>
-    <row r="99" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
+    <row r="99" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
     </row>
-    <row r="100" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="3"/>
       <c r="F100" s="4" t="s">
         <v>0</v>
@@ -2575,139 +2575,151 @@
       <c r="H100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I100" s="48">
+      <c r="I100" s="47">
         <v>45637</v>
       </c>
     </row>
-    <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="64"/>
-      <c r="F101" s="58" t="s">
+    <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="56"/>
+      <c r="F101" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="58" t="s">
+      <c r="H101" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="58" t="s">
+      <c r="I101" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="64"/>
-      <c r="F102" s="59"/>
+    <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E102" s="56"/>
+      <c r="F102" s="55"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-    </row>
-    <row r="103" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+    </row>
+    <row r="103" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
+      <c r="F103" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I103" s="37"/>
     </row>
-    <row r="104" spans="5:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
+      <c r="F104" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E108" s="3"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="3"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="3"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="3"/>
       <c r="F116" s="28"/>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
     </row>
-    <row r="117" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E117" s="3"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E118" s="3"/>
       <c r="F118" s="31" t="s">
         <v>21</v>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="I118" s="33"/>
     </row>
-    <row r="119" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
+    <row r="119" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
     </row>
-    <row r="120" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E120" s="3"/>
       <c r="F120" s="4" t="s">
         <v>0</v>
@@ -2738,139 +2750,139 @@
       <c r="H120" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="48">
+      <c r="I120" s="47">
         <v>45644</v>
       </c>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" s="64"/>
-      <c r="F121" s="58" t="s">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E121" s="56"/>
+      <c r="F121" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="58" t="s">
+      <c r="H121" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I121" s="58" t="s">
+      <c r="I121" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="64"/>
-      <c r="F122" s="59"/>
+    <row r="122" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E122" s="56"/>
+      <c r="F122" s="55"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-    </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="3"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="37"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="3"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E126" s="3"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E127" s="3"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E128" s="3"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E129" s="3"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E130" s="3"/>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E131" s="3"/>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E132" s="3"/>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E133" s="3"/>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E134" s="3"/>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E135" s="3"/>
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E136" s="3"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
     </row>
-    <row r="137" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E137" s="3"/>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
       <c r="H137" s="30"/>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E138" s="3"/>
       <c r="F138" s="31" t="s">
         <v>21</v>
@@ -2883,15 +2895,15 @@
       </c>
       <c r="I138" s="33"/>
     </row>
-    <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
+    <row r="139" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
     </row>
-    <row r="140" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E140" s="41"/>
+    <row r="140" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E140" s="3"/>
       <c r="F140" s="4" t="s">
         <v>0</v>
       </c>
@@ -2901,140 +2913,140 @@
       <c r="H140" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I140" s="48">
+      <c r="I140" s="47">
         <v>45651</v>
       </c>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="64"/>
-      <c r="F141" s="58" t="s">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E141" s="56"/>
+      <c r="F141" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H141" s="58" t="s">
+      <c r="H141" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I141" s="58" t="s">
+      <c r="I141" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="64"/>
-      <c r="F142" s="59"/>
+    <row r="142" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E142" s="56"/>
+      <c r="F142" s="55"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="59"/>
-      <c r="I142" s="59"/>
-    </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E143" s="41"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="55"/>
+    </row>
+    <row r="143" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E143" s="3"/>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
       <c r="I143" s="37"/>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E144" s="41"/>
+    <row r="144" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E144" s="3"/>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E145" s="41"/>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E145" s="3"/>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E146" s="41"/>
+    <row r="146" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E146" s="3"/>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E147" s="41"/>
+    <row r="147" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E147" s="3"/>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E148" s="41"/>
+    <row r="148" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E148" s="3"/>
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="41"/>
+    <row r="149" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E149" s="3"/>
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E150" s="41"/>
+    <row r="150" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E150" s="3"/>
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E151" s="41"/>
+    <row r="151" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E151" s="3"/>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E152" s="41"/>
+    <row r="152" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E152" s="3"/>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="41"/>
+    <row r="153" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E153" s="3"/>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="41"/>
+    <row r="154" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E154" s="3"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E155" s="41"/>
+    <row r="155" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E155" s="3"/>
       <c r="F155" s="28"/>
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
     </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E156" s="41"/>
+    <row r="156" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E156" s="3"/>
       <c r="F156" s="28"/>
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
     </row>
-    <row r="157" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E157" s="41"/>
+    <row r="157" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E157" s="3"/>
       <c r="F157" s="30"/>
       <c r="G157" s="30"/>
       <c r="H157" s="30"/>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E158" s="41"/>
+    <row r="158" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E158" s="3"/>
       <c r="F158" s="31" t="s">
         <v>21</v>
       </c>
@@ -3046,61 +3058,22 @@
       </c>
       <c r="I158" s="33"/>
     </row>
-    <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
+    <row r="159" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
@@ -3110,13 +3083,52 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I41:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca75c2ab181ca0c/Документи/GitHub/password-manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_50A185C16F79C8150FE3D324A1460863E4469A48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{091C3C59-FAAB-4E7A-AF5D-D6B367CFA178}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_50A185C16F79C8150FE3D324A1460863E4469A48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F696F59-7D82-4B25-9B7E-2C951E3A68E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>Semaine</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">function of deciding YesNo; showing of users info form file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewpassword,savepassword, loadpassword; script for create 10 accounts (all different stuff to make code better and lovely, adorable to use  </t>
   </si>
 </sst>
 </file>
@@ -929,28 +932,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" topLeftCell="E77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,8 +1293,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1309,11 +1312,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="56"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="54" t="s">
         <v>2</v>
       </c>
@@ -1328,11 +1331,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="56"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="55"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
@@ -1403,7 +1406,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
@@ -1425,8 +1428,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1436,8 +1439,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1535,8 +1538,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1546,8 +1549,8 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="29"/>
       <c r="D17" s="44"/>
       <c r="E17" s="3"/>
@@ -1557,8 +1560,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1568,8 +1571,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="20"/>
       <c r="D19" s="44"/>
       <c r="E19" s="3"/>
@@ -1586,13 +1589,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -1916,8 +1919,8 @@
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1946,7 +1949,7 @@
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="56"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="54" t="s">
         <v>2</v>
       </c>
@@ -1968,7 +1971,7 @@
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="55"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
@@ -2044,8 +2047,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="20"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2054,8 +2057,8 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="20"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2065,8 +2068,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="20"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2076,8 +2079,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="20"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2087,8 +2090,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2098,8 +2101,8 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2109,8 +2112,8 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2120,8 +2123,8 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2131,8 +2134,8 @@
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2162,8 +2165,8 @@
       <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -2184,7 +2187,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E61" s="56"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="54" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2202,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E62" s="56"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="55"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
@@ -2329,8 +2332,8 @@
       <c r="I78" s="33"/>
     </row>
     <row r="79" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -2351,7 +2354,7 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E81" s="56"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="54" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2369,7 @@
       </c>
     </row>
     <row r="82" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E82" s="56"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="55"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
@@ -2537,14 +2540,14 @@
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="3"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E98" s="3"/>
       <c r="F98" s="31" t="s">
         <v>21</v>
@@ -2557,14 +2560,14 @@
       </c>
       <c r="I98" s="33"/>
     </row>
-    <row r="99" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
+    <row r="99" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
     </row>
-    <row r="100" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="3"/>
       <c r="F100" s="4" t="s">
         <v>0</v>
@@ -2579,8 +2582,8 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="101" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="56"/>
+    <row r="101" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="60"/>
       <c r="F101" s="54" t="s">
         <v>2</v>
       </c>
@@ -2594,8 +2597,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E102" s="56"/>
+    <row r="102" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E102" s="60"/>
       <c r="F102" s="55"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
@@ -2603,7 +2606,7 @@
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
     </row>
-    <row r="103" spans="5:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
       <c r="F103" s="17" t="s">
         <v>13</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="I103" s="37"/>
     </row>
-    <row r="104" spans="5:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="17" t="s">
         <v>36</v>
@@ -2629,60 +2632,110 @@
       </c>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="3"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E108" s="3"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="I108" s="17"/>
-    </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <v>6</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M108" s="47">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="109" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L109" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M109" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E110" s="3"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-    </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="55"/>
+      <c r="K110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L110" s="55"/>
+      <c r="M110" s="55"/>
+    </row>
+    <row r="111" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-    </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M111" s="37"/>
+    </row>
+    <row r="112" spans="5:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
+      <c r="J112" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M112" s="17"/>
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
@@ -2733,8 +2786,8 @@
       <c r="I118" s="33"/>
     </row>
     <row r="119" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -2755,7 +2808,7 @@
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E121" s="56"/>
+      <c r="E121" s="60"/>
       <c r="F121" s="54" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2823,7 @@
       </c>
     </row>
     <row r="122" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E122" s="56"/>
+      <c r="E122" s="60"/>
       <c r="F122" s="55"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
@@ -2783,13 +2836,12 @@
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
-      <c r="I123" s="37"/>
+      <c r="I123" s="17"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.3">
@@ -2817,6 +2869,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.3">
@@ -2896,8 +2949,8 @@
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -2918,7 +2971,7 @@
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E141" s="56"/>
+      <c r="E141" s="60"/>
       <c r="F141" s="54" t="s">
         <v>2</v>
       </c>
@@ -2933,7 +2986,7 @@
       </c>
     </row>
     <row r="142" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E142" s="56"/>
+      <c r="E142" s="60"/>
       <c r="F142" s="55"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
@@ -3059,53 +3112,25 @@
       <c r="I158" s="33"/>
     </row>
     <row r="159" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E159" s="57"/>
-      <c r="F159" s="57"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
+  <mergeCells count="65">
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E141:E142"/>
     <mergeCell ref="H141:H142"/>
@@ -3121,14 +3146,45 @@
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca75c2ab181ca0c/Документи/GitHub/password-manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\password-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_50A185C16F79C8150FE3D324A1460863E4469A48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F696F59-7D82-4B25-9B7E-2C951E3A68E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC19954-8D8B-4577-95B4-0D63E27ED92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Semaine</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t xml:space="preserve">viewpassword,savepassword, loadpassword; script for create 10 accounts (all different stuff to make code better and lovely, adorable to use  </t>
+  </si>
+  <si>
+    <t>oui/non(DeletePassword); entre number of deletting; Yes/non methode(addapted for 2 methodes deleting and viewing)</t>
+  </si>
+  <si>
+    <t>0.7H</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -932,28 +938,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,29 +1278,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="E99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="121.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="121.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="58.109375" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" customWidth="1"/>
-    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="58.140625" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="1"/>
@@ -1311,39 +1319,39 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -1362,7 +1370,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
@@ -1385,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="15" t="s">
         <v>12</v>
@@ -1406,7 +1414,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="149.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
@@ -1427,9 +1435,9 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1438,9 +1446,9 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+    <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1449,7 +1457,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1464,7 +1472,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="23" t="s">
         <v>16</v>
@@ -1479,7 +1487,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
@@ -1494,7 +1502,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
         <v>18</v>
@@ -1509,7 +1517,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
         <v>19</v>
@@ -1524,7 +1532,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
@@ -1537,9 +1545,9 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1548,7 +1556,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="29"/>
@@ -1559,7 +1567,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
       <c r="C18" s="1"/>
@@ -1570,9 +1578,9 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="20"/>
       <c r="D19" s="44"/>
       <c r="E19" s="3"/>
@@ -1589,18 +1597,18 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="41" t="s">
         <v>23</v>
@@ -1627,7 +1635,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
         <v>43</v>
@@ -1639,20 +1647,20 @@
         <v>2</v>
       </c>
       <c r="E22" s="52"/>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="B23" s="36" t="s">
         <v>42</v>
@@ -1664,14 +1672,14 @@
         <v>3</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="55"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="38" t="s">
         <v>44</v>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="36" t="s">
         <v>46</v>
@@ -1717,7 +1725,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="36" t="s">
         <v>48</v>
@@ -1740,7 +1748,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="38" t="s">
         <v>50</v>
@@ -1757,7 +1765,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="36" t="s">
         <v>52</v>
@@ -1773,7 +1781,7 @@
       <c r="G28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="36" t="s">
         <v>54</v>
@@ -1790,7 +1798,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="38" t="s">
         <v>56</v>
@@ -1807,7 +1815,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="36" t="s">
         <v>38</v>
@@ -1824,7 +1832,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="36" t="s">
         <v>58</v>
@@ -1839,7 +1847,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -1850,7 +1858,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="36"/>
       <c r="C34" s="39"/>
@@ -1861,7 +1869,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1872,7 +1880,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -1886,7 +1894,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -1897,7 +1905,7 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -1914,18 +1922,18 @@
       </c>
       <c r="I38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -1944,26 +1952,26 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="58"/>
+      <c r="F41" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -1971,15 +1979,15 @@
         <f>SUM(D16:D41)</f>
         <v>60</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="I43" s="37"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -2013,7 +2021,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -2024,7 +2032,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -2035,7 +2043,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -2046,9 +2054,9 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="20"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2056,9 +2064,9 @@
       <c r="G48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="20"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2067,9 +2075,9 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="20"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2078,9 +2086,9 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="20"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2089,9 +2097,9 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2100,9 +2108,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2111,9 +2119,9 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2122,9 +2130,9 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
-      <c r="B55" s="62"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2133,9 +2141,9 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73"/>
-      <c r="B56" s="70"/>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="62"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2144,14 +2152,14 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="31" t="s">
         <v>21</v>
@@ -2164,14 +2172,14 @@
       </c>
       <c r="I58" s="33"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
     </row>
-    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
         <v>0</v>
@@ -2186,31 +2194,31 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E61" s="60"/>
-      <c r="F61" s="54" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E61" s="58"/>
+      <c r="F61" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="54" t="s">
+      <c r="H61" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="54" t="s">
+      <c r="I61" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E62" s="60"/>
-      <c r="F62" s="55"/>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="58"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
       <c r="F63" s="17" t="s">
         <v>68</v>
@@ -2221,104 +2229,104 @@
       </c>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="3"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="3"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E72" s="3"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E73" s="3"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E74" s="3"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E75" s="3"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E76" s="3"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="3"/>
       <c r="F77" s="30"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="3"/>
       <c r="F78" s="31" t="s">
         <v>21</v>
@@ -2331,14 +2339,14 @@
       </c>
       <c r="I78" s="33"/>
     </row>
-    <row r="79" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
+    <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
     </row>
-    <row r="80" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
         <v>0</v>
@@ -2353,31 +2361,31 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E81" s="60"/>
-      <c r="F81" s="54" t="s">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="58"/>
+      <c r="F81" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="54" t="s">
+      <c r="H81" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="54" t="s">
+      <c r="I81" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E82" s="60"/>
-      <c r="F82" s="55"/>
+    <row r="82" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="58"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
       <c r="F83" s="17" t="s">
         <v>13</v>
@@ -2390,7 +2398,7 @@
       </c>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
       <c r="F84" s="17" t="s">
         <v>36</v>
@@ -2403,21 +2411,21 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="3"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -2436,38 +2444,38 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="54" t="s">
+      <c r="J88" s="56" t="s">
         <v>2</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L88" s="54" t="s">
+      <c r="L88" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="54" t="s">
+      <c r="M88" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="3"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="55"/>
+      <c r="J89" s="57"/>
       <c r="K89" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-    </row>
-    <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="57"/>
+      <c r="M89" s="57"/>
+    </row>
+    <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E91" s="3"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -2501,7 +2509,7 @@
       </c>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E92" s="3"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -2512,42 +2520,42 @@
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E93" s="3"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E94" s="3"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E95" s="3"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E96" s="3"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E97" s="3"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="31" t="s">
         <v>21</v>
@@ -2560,14 +2568,14 @@
       </c>
       <c r="I98" s="33"/>
     </row>
-    <row r="99" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
+    <row r="99" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
     </row>
-    <row r="100" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E100" s="3"/>
       <c r="F100" s="4" t="s">
         <v>0</v>
@@ -2582,31 +2590,31 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="101" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="60"/>
-      <c r="F101" s="54" t="s">
+    <row r="101" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="58"/>
+      <c r="F101" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="54" t="s">
+      <c r="I101" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E102" s="60"/>
-      <c r="F102" s="55"/>
+    <row r="102" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="58"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-    </row>
-    <row r="103" spans="5:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+    </row>
+    <row r="103" spans="5:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
       <c r="F103" s="17" t="s">
         <v>13</v>
@@ -2619,7 +2627,7 @@
       </c>
       <c r="I103" s="37"/>
     </row>
-    <row r="104" spans="5:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="17" t="s">
         <v>36</v>
@@ -2631,148 +2639,198 @@
         <v>70</v>
       </c>
       <c r="I104" s="17"/>
-    </row>
-    <row r="105" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
+        <v>6</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M104" s="47">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="105" spans="5:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-    </row>
-    <row r="106" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J105" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M105" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
-    </row>
-    <row r="107" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J106" s="55"/>
+      <c r="K106" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="55"/>
+      <c r="M106" s="55"/>
+    </row>
+    <row r="107" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-    </row>
-    <row r="108" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J107" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M107" s="37"/>
+    </row>
+    <row r="108" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K108" s="5">
-        <v>6</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M108" s="47">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="109" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J108" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="5:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L109" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="M109" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L110" s="55"/>
-      <c r="M110" s="55"/>
-    </row>
-    <row r="111" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
+        <v>6</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M110" s="47">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L111" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M111" s="37"/>
-    </row>
-    <row r="112" spans="5:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="J111" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L111" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M111" s="56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K112" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L112" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M112" s="17"/>
-    </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="57"/>
+      <c r="K112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="57"/>
+      <c r="M112" s="57"/>
+    </row>
+    <row r="113" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-    </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M113" s="37"/>
+    </row>
+    <row r="114" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E114" s="3"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
-    </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E115" s="3"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E116" s="3"/>
       <c r="F116" s="28"/>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
     </row>
-    <row r="117" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E117" s="3"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="3"/>
       <c r="F118" s="31" t="s">
         <v>21</v>
@@ -2785,14 +2843,14 @@
       </c>
       <c r="I118" s="33"/>
     </row>
-    <row r="119" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
+    <row r="119" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
     </row>
-    <row r="120" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E120" s="3"/>
       <c r="F120" s="4" t="s">
         <v>0</v>
@@ -2807,135 +2865,135 @@
         <v>45644</v>
       </c>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E121" s="60"/>
-      <c r="F121" s="54" t="s">
+    <row r="121" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E121" s="58"/>
+      <c r="F121" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="54" t="s">
+      <c r="H121" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I121" s="54" t="s">
+      <c r="I121" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E122" s="60"/>
-      <c r="F122" s="55"/>
+    <row r="122" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="58"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-    </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+    </row>
+    <row r="123" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E126" s="3"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E127" s="3"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E128" s="3"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E129" s="3"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E130" s="3"/>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E131" s="3"/>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E132" s="3"/>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E133" s="3"/>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E134" s="3"/>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E135" s="3"/>
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E136" s="3"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
     </row>
-    <row r="137" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E137" s="3"/>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
       <c r="H137" s="30"/>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
       <c r="F138" s="31" t="s">
         <v>21</v>
@@ -2948,14 +3006,14 @@
       </c>
       <c r="I138" s="33"/>
     </row>
-    <row r="139" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
+    <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
     </row>
-    <row r="140" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E140" s="3"/>
       <c r="F140" s="4" t="s">
         <v>0</v>
@@ -2970,135 +3028,135 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E141" s="60"/>
-      <c r="F141" s="54" t="s">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E141" s="58"/>
+      <c r="F141" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H141" s="54" t="s">
+      <c r="H141" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I141" s="54" t="s">
+      <c r="I141" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E142" s="60"/>
-      <c r="F142" s="55"/>
+    <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="58"/>
+      <c r="F142" s="57"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="55"/>
-      <c r="I142" s="55"/>
-    </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+    </row>
+    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
       <c r="I143" s="37"/>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="3"/>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E145" s="3"/>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="3"/>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E147" s="3"/>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E148" s="3"/>
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E149" s="3"/>
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E150" s="3"/>
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E151" s="3"/>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E152" s="3"/>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E153" s="3"/>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E154" s="3"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E155" s="3"/>
       <c r="F155" s="28"/>
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
     </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E156" s="3"/>
       <c r="F156" s="28"/>
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
     </row>
-    <row r="157" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E157" s="3"/>
       <c r="F157" s="30"/>
       <c r="G157" s="30"/>
       <c r="H157" s="30"/>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E158" s="3"/>
       <c r="F158" s="31" t="s">
         <v>21</v>
@@ -3111,26 +3169,57 @@
       </c>
       <c r="I158" s="33"/>
     </row>
-    <row r="159" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E159" s="65"/>
-      <c r="F159" s="65"/>
+    <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="E139:F139"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E141:E142"/>
     <mergeCell ref="H141:H142"/>
@@ -3146,45 +3235,14 @@
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\password-manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosnademo\Documents\GitHub\password-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC19954-8D8B-4577-95B4-0D63E27ED92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
   <si>
     <t>Semaine</t>
   </si>
@@ -270,11 +269,20 @@
   <si>
     <t>0.7H</t>
   </si>
+  <si>
+    <t>Description du projet(DESCRIPTION,PRINCIPALES FONCTIONNALITÉS,MÉTHODES PRINCIPALES) , modification de l'affichage des données sauvegardées, correction des erreurs d'affichage, améliorations des méthodes en général.  JDT</t>
+  </si>
+  <si>
+    <t>ameliorer le jrapport, finaliser</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1275,14 +1283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" topLeftCell="I110" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
@@ -2590,7 +2598,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="101" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E101" s="58"/>
       <c r="F101" s="56" t="s">
         <v>2</v>
@@ -2603,6 +2611,18 @@
       </c>
       <c r="I101" s="56" t="s">
         <v>5</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
+        <v>6</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M101" s="47">
+        <v>45640</v>
       </c>
     </row>
     <row r="102" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2613,6 +2633,18 @@
       </c>
       <c r="H102" s="57"/>
       <c r="I102" s="57"/>
+      <c r="J102" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="5:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
@@ -2626,8 +2658,14 @@
         <v>67</v>
       </c>
       <c r="I103" s="37"/>
-    </row>
-    <row r="104" spans="5:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J103" s="55"/>
+      <c r="K103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+    </row>
+    <row r="104" spans="5:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
       <c r="F104" s="17" t="s">
         <v>36</v>
@@ -2639,83 +2677,77 @@
         <v>70</v>
       </c>
       <c r="I104" s="17"/>
-      <c r="J104" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K104" s="5">
-        <v>6</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M104" s="47">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="105" spans="5:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J104" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M104" s="37"/>
+    </row>
+    <row r="105" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L105" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="M105" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J105" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="55"/>
-      <c r="K106" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L106" s="55"/>
-      <c r="M106" s="55"/>
-    </row>
-    <row r="107" spans="5:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L107" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M107" s="37"/>
-    </row>
-    <row r="108" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
+        <v>6</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M107" s="47">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="108" spans="5:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K108" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L108" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M108" s="17"/>
+      <c r="J108" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M108" s="54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="5:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
@@ -2723,98 +2755,104 @@
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-    </row>
-    <row r="110" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J109" s="55"/>
+      <c r="K109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" s="55"/>
+      <c r="M109" s="55"/>
+    </row>
+    <row r="110" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K110" s="5">
-        <v>6</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M110" s="47">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J110" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M110" s="37"/>
+    </row>
+    <row r="111" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L111" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="M111" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J111" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="57"/>
-      <c r="K112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L112" s="57"/>
-      <c r="M112" s="57"/>
-    </row>
-    <row r="113" spans="5:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L113" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M113" s="37"/>
-    </row>
-    <row r="114" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
+        <v>6</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M113" s="47">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="114" spans="5:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E114" s="3"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K114" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M114" s="17"/>
-    </row>
-    <row r="115" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J114" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L114" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E115" s="3"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
     </row>
     <row r="116" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E116" s="3"/>
@@ -2822,13 +2860,33 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-    </row>
-    <row r="117" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J116" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M116" s="37"/>
+    </row>
+    <row r="117" spans="5:13" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E117" s="3"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
+      <c r="J117" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M117" s="17"/>
     </row>
     <row r="118" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="3"/>
@@ -2842,6 +2900,16 @@
         <v>22</v>
       </c>
       <c r="I118" s="33"/>
+      <c r="J118" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M118" s="37"/>
     </row>
     <row r="119" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E119" s="59"/>
@@ -3177,17 +3245,17 @@
       <c r="I159" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
+  <mergeCells count="62">
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
@@ -3197,6 +3265,11 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E41:E42"/>
@@ -3206,7 +3279,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I101:I102"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
@@ -3235,14 +3307,7 @@
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JDT_Yosef-Nademo.xlsx
+++ b/JDT_Yosef-Nademo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
   <si>
     <t>Semaine</t>
   </si>
@@ -277,6 +277,39 @@
   </si>
   <si>
     <t>2H</t>
+  </si>
+  <si>
+    <t>corrections generales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  corrections genereales</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>FINALE</t>
+  </si>
+  <si>
+    <t>ESTIMATION</t>
+  </si>
+  <si>
+    <t>l'heure finale</t>
+  </si>
+  <si>
+    <t>album+  ameliorer le jrapport, finaliser</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>master password</t>
+  </si>
+  <si>
+    <t>Travail aditionel(en dehors de l'ecole)</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/</t>
   </si>
 </sst>
 </file>
@@ -367,7 +400,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +467,24 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -821,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -946,6 +997,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -970,6 +1033,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,14 +1358,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I110" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
     <col min="3" max="3" width="121.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -1309,8 +1381,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1328,36 +1400,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1444,8 +1516,8 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1455,8 +1527,8 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1554,8 +1626,8 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1565,8 +1637,8 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="29"/>
       <c r="D17" s="44"/>
       <c r="E17" s="3"/>
@@ -1576,8 +1648,8 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1587,8 +1659,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="20"/>
       <c r="D19" s="44"/>
       <c r="E19" s="3"/>
@@ -1605,13 +1677,13 @@
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -1655,16 +1727,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="52"/>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="60" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1680,12 +1752,12 @@
         <v>3</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
@@ -1866,22 +1938,35 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="43">
+        <f>SUM(D22:D33)</f>
+        <v>30</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="43">
+        <v>25.8</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -1894,7 +1979,7 @@
       <c r="C36" s="20"/>
       <c r="D36" s="48">
         <f>SUM(D10:D35)</f>
-        <v>30</v>
+        <v>85.8</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="28"/>
@@ -1935,8 +2020,8 @@
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1965,17 +2050,17 @@
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="56" t="s">
+      <c r="E41" s="62"/>
+      <c r="F41" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="60" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1985,15 +2070,15 @@
       <c r="C42" s="20"/>
       <c r="D42" s="48">
         <f>SUM(D16:D41)</f>
-        <v>60</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57"/>
+        <v>171.6</v>
+      </c>
+      <c r="E42" s="62"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
@@ -2027,7 +2112,9 @@
       <c r="H44" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -2063,8 +2150,8 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="20"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2073,8 +2160,8 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="20"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2084,8 +2171,8 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="20"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2095,8 +2182,8 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="20"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2106,8 +2193,8 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2117,8 +2204,8 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2128,8 +2215,8 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2139,8 +2226,8 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="20"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2150,8 +2237,8 @@
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="29"/>
       <c r="D56" s="40"/>
       <c r="E56" s="3"/>
@@ -2181,8 +2268,8 @@
       <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -2203,39 +2290,39 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="58"/>
-      <c r="F61" s="56" t="s">
+      <c r="E61" s="62"/>
+      <c r="F61" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="56" t="s">
+      <c r="H61" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="56" t="s">
+      <c r="I61" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="58"/>
-      <c r="F62" s="57"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17" t="s">
+      <c r="G63" s="56"/>
+      <c r="H63" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="37"/>
+      <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
@@ -2348,8 +2435,8 @@
       <c r="I78" s="33"/>
     </row>
     <row r="79" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -2370,28 +2457,28 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="58"/>
-      <c r="F81" s="56" t="s">
+      <c r="E81" s="62"/>
+      <c r="F81" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="56" t="s">
+      <c r="H81" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="56" t="s">
+      <c r="I81" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="58"/>
-      <c r="F82" s="57"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
@@ -2419,7 +2506,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85" s="3"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -2432,6 +2519,12 @@
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
+      <c r="J86" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="82"/>
     </row>
     <row r="87" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
@@ -2457,16 +2550,16 @@
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="56" t="s">
+      <c r="J88" s="60" t="s">
         <v>2</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L88" s="56" t="s">
+      <c r="L88" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="56" t="s">
+      <c r="M88" s="60" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2476,12 +2569,12 @@
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="57"/>
+      <c r="J89" s="61"/>
       <c r="K89" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
     </row>
     <row r="90" spans="5:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
@@ -2577,8 +2670,8 @@
       <c r="I98" s="33"/>
     </row>
     <row r="99" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
@@ -2597,19 +2690,25 @@
       <c r="I100" s="47">
         <v>45637</v>
       </c>
+      <c r="J100" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K100" s="81"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="82"/>
     </row>
     <row r="101" spans="5:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="58"/>
-      <c r="F101" s="56" t="s">
+      <c r="E101" s="62"/>
+      <c r="F101" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="56" t="s">
+      <c r="H101" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="56" t="s">
+      <c r="I101" s="60" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="4" t="s">
@@ -2626,13 +2725,13 @@
       </c>
     </row>
     <row r="102" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="58"/>
-      <c r="F102" s="57"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="61"/>
       <c r="G102" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="54" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +2787,7 @@
       </c>
       <c r="M104" s="37"/>
     </row>
-    <row r="105" spans="5:13" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
@@ -2703,7 +2802,9 @@
       <c r="L105" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M105" s="17"/>
+      <c r="M105" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="106" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
@@ -2711,6 +2812,12 @@
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
+      <c r="J106" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" s="81"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="82"/>
     </row>
     <row r="107" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
@@ -2779,7 +2886,7 @@
       </c>
       <c r="M110" s="37"/>
     </row>
-    <row r="111" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
@@ -2802,6 +2909,12 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
+      <c r="J112" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="82"/>
     </row>
     <row r="113" spans="5:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E113" s="3"/>
@@ -2886,7 +2999,9 @@
       <c r="L117" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M117" s="17"/>
+      <c r="M117" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="118" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="3"/>
@@ -2912,8 +3027,8 @@
       <c r="M118" s="37"/>
     </row>
     <row r="119" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -2934,35 +3049,39 @@
       </c>
     </row>
     <row r="121" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E121" s="58"/>
-      <c r="F121" s="56" t="s">
+      <c r="E121" s="62"/>
+      <c r="F121" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="56" t="s">
+      <c r="H121" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I121" s="56" t="s">
+      <c r="I121" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="58"/>
-      <c r="F122" s="57"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="61"/>
       <c r="G122" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
     </row>
     <row r="123" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
+      <c r="F123" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123" s="56"/>
     </row>
     <row r="124" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
@@ -3075,8 +3194,8 @@
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -3093,59 +3212,83 @@
         <v>1</v>
       </c>
       <c r="I140" s="47">
-        <v>45651</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="58"/>
-      <c r="F141" s="56" t="s">
+      <c r="E141" s="62"/>
+      <c r="F141" s="60" t="s">
         <v>2</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H141" s="56" t="s">
+      <c r="H141" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I141" s="56" t="s">
+      <c r="I141" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="58"/>
-      <c r="F142" s="57"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="61"/>
       <c r="G142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
+      <c r="F143" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="I143" s="37"/>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144" s="3"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
+      <c r="F144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I144" s="17"/>
     </row>
     <row r="145" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E145" s="3"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
+      <c r="F145" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="I145" s="17"/>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="3"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
+      <c r="F146" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="I146" s="17"/>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.25">
@@ -3219,10 +3362,18 @@
     </row>
     <row r="157" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E157" s="3"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
+      <c r="F157" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157" s="58" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="158" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E158" s="3"/>
@@ -3238,19 +3389,23 @@
       <c r="I158" s="33"/>
     </row>
     <row r="159" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="63"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="66">
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="J112:M112"/>
     <mergeCell ref="J88:J89"/>
     <mergeCell ref="L88:L89"/>
     <mergeCell ref="M88:M89"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J86:M86"/>
     <mergeCell ref="I101:I102"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I61:I62"/>
